--- a/Code/Results/Cases/Case_4_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00764959601074</v>
+        <v>1.041996964640007</v>
       </c>
       <c r="D2">
-        <v>1.025338182471219</v>
+        <v>1.043860229030055</v>
       </c>
       <c r="E2">
-        <v>1.024938767239242</v>
+        <v>1.055527091839851</v>
       </c>
       <c r="F2">
-        <v>1.030920859811101</v>
+        <v>1.062840747374948</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050584786137072</v>
+        <v>1.039351185376353</v>
       </c>
       <c r="J2">
-        <v>1.029603891690386</v>
+        <v>1.047075161650013</v>
       </c>
       <c r="K2">
-        <v>1.036455451304338</v>
+        <v>1.046632905581689</v>
       </c>
       <c r="L2">
-        <v>1.036061263743788</v>
+        <v>1.058267305117526</v>
       </c>
       <c r="M2">
-        <v>1.041965591281792</v>
+        <v>1.065561003750701</v>
       </c>
       <c r="N2">
-        <v>1.031066047313804</v>
+        <v>1.048562128480756</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013221609491735</v>
+        <v>1.043147733651574</v>
       </c>
       <c r="D3">
-        <v>1.02957104549682</v>
+        <v>1.044734762056177</v>
       </c>
       <c r="E3">
-        <v>1.030172684298524</v>
+        <v>1.056663638857233</v>
       </c>
       <c r="F3">
-        <v>1.03645708622924</v>
+        <v>1.064045320553874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052396624116064</v>
+        <v>1.039626729482457</v>
       </c>
       <c r="J3">
-        <v>1.033358216424</v>
+        <v>1.047871187048731</v>
       </c>
       <c r="K3">
-        <v>1.039839039520855</v>
+        <v>1.047318393646616</v>
       </c>
       <c r="L3">
-        <v>1.040433524083588</v>
+        <v>1.059216487178757</v>
       </c>
       <c r="M3">
-        <v>1.046643810975551</v>
+        <v>1.066579492489757</v>
       </c>
       <c r="N3">
-        <v>1.034825703619166</v>
+        <v>1.049359284326846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016740612491699</v>
+        <v>1.043892177384048</v>
       </c>
       <c r="D4">
-        <v>1.032244484726889</v>
+        <v>1.0453001034771</v>
       </c>
       <c r="E4">
-        <v>1.033483420722896</v>
+        <v>1.05739921494096</v>
       </c>
       <c r="F4">
-        <v>1.039958759910648</v>
+        <v>1.064824921065073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053526176318047</v>
+        <v>1.039803158006219</v>
       </c>
       <c r="J4">
-        <v>1.035725573782187</v>
+        <v>1.048385551134136</v>
       </c>
       <c r="K4">
-        <v>1.041968720201235</v>
+        <v>1.047760774462567</v>
       </c>
       <c r="L4">
-        <v>1.043193851961868</v>
+        <v>1.059830241114861</v>
       </c>
       <c r="M4">
-        <v>1.049597700251671</v>
+        <v>1.067238111428524</v>
       </c>
       <c r="N4">
-        <v>1.037196422896342</v>
+        <v>1.04987437886825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018200196560177</v>
+        <v>1.044205099550369</v>
       </c>
       <c r="D5">
-        <v>1.033353321202429</v>
+        <v>1.045537643954096</v>
       </c>
       <c r="E5">
-        <v>1.034857840267499</v>
+        <v>1.057708488856159</v>
       </c>
       <c r="F5">
-        <v>1.041412382078105</v>
+        <v>1.065152704660421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053991096774628</v>
+        <v>1.03987688168705</v>
       </c>
       <c r="J5">
-        <v>1.036706560806355</v>
+        <v>1.048601618595931</v>
       </c>
       <c r="K5">
-        <v>1.042850260877866</v>
+        <v>1.047946470189445</v>
       </c>
       <c r="L5">
-        <v>1.044338481819961</v>
+        <v>1.060088160964633</v>
       </c>
       <c r="M5">
-        <v>1.050822692522055</v>
+        <v>1.067514897143637</v>
       </c>
       <c r="N5">
-        <v>1.038178803034605</v>
+        <v>1.050090753170624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018444130753058</v>
+        <v>1.044257638135039</v>
       </c>
       <c r="D6">
-        <v>1.033538632485423</v>
+        <v>1.045577520483247</v>
       </c>
       <c r="E6">
-        <v>1.035087611713409</v>
+        <v>1.057760419543711</v>
       </c>
       <c r="F6">
-        <v>1.04165539085965</v>
+        <v>1.065207743315164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054068584532117</v>
+        <v>1.03988923401494</v>
       </c>
       <c r="J6">
-        <v>1.036870453385734</v>
+        <v>1.048637887251336</v>
       </c>
       <c r="K6">
-        <v>1.04299748211102</v>
+        <v>1.047977632840453</v>
       </c>
       <c r="L6">
-        <v>1.044529761504273</v>
+        <v>1.060131460863849</v>
       </c>
       <c r="M6">
-        <v>1.05102740742359</v>
+        <v>1.067561364977856</v>
       </c>
       <c r="N6">
-        <v>1.038342928360245</v>
+        <v>1.05012707333168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016760192202275</v>
+        <v>1.04389635882868</v>
       </c>
       <c r="D7">
-        <v>1.032259359524025</v>
+        <v>1.045303278011448</v>
       </c>
       <c r="E7">
-        <v>1.033501853224382</v>
+        <v>1.05740334732488</v>
       </c>
       <c r="F7">
-        <v>1.039978254848845</v>
+        <v>1.064829300768948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053532427282041</v>
+        <v>1.039804144861463</v>
       </c>
       <c r="J7">
-        <v>1.035738737031461</v>
+        <v>1.048388438910108</v>
       </c>
       <c r="K7">
-        <v>1.041980552858294</v>
+        <v>1.047763256842375</v>
       </c>
       <c r="L7">
-        <v>1.043209207844801</v>
+        <v>1.059833687853622</v>
       </c>
       <c r="M7">
-        <v>1.049614133853894</v>
+        <v>1.067241810235652</v>
       </c>
       <c r="N7">
-        <v>1.037209604838939</v>
+        <v>1.049877270745196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009551143379685</v>
+        <v>1.042385910626383</v>
       </c>
       <c r="D8">
-        <v>1.026782638040466</v>
+        <v>1.044155893480695</v>
       </c>
       <c r="E8">
-        <v>1.026723800789938</v>
+        <v>1.055911161801319</v>
       </c>
       <c r="F8">
-        <v>1.032809061221586</v>
+        <v>1.063247805744872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051206166006248</v>
+        <v>1.039444693407699</v>
       </c>
       <c r="J8">
-        <v>1.030885869005162</v>
+        <v>1.047344331095822</v>
       </c>
       <c r="K8">
-        <v>1.037611642298637</v>
+        <v>1.04686481313495</v>
       </c>
       <c r="L8">
-        <v>1.037553551005651</v>
+        <v>1.058588175174088</v>
       </c>
       <c r="M8">
-        <v>1.043562221716726</v>
+        <v>1.065905292449777</v>
       </c>
       <c r="N8">
-        <v>1.032349845183411</v>
+        <v>1.048831680178052</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9961423666069791</v>
+        <v>1.039722864868481</v>
       </c>
       <c r="D9">
-        <v>1.016601028610146</v>
+        <v>1.042129910146776</v>
       </c>
       <c r="E9">
-        <v>1.014161019220729</v>
+        <v>1.053282883492173</v>
       </c>
       <c r="F9">
-        <v>1.019518682642955</v>
+        <v>1.060462199372533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046763977213331</v>
+        <v>1.038796991441749</v>
       </c>
       <c r="J9">
-        <v>1.021832087162571</v>
+        <v>1.045498956938774</v>
       </c>
       <c r="K9">
-        <v>1.029430387582337</v>
+        <v>1.045272620184609</v>
       </c>
       <c r="L9">
-        <v>1.027028447123024</v>
+        <v>1.056390094185703</v>
       </c>
       <c r="M9">
-        <v>1.032302825967518</v>
+        <v>1.063546990247883</v>
       </c>
       <c r="N9">
-        <v>1.023283205932121</v>
+        <v>1.046983685378034</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9866629363639446</v>
+        <v>1.03794644612953</v>
       </c>
       <c r="D10">
-        <v>1.009411983891349</v>
+        <v>1.040776450158389</v>
       </c>
       <c r="E10">
-        <v>1.005313120396513</v>
+        <v>1.05153141103122</v>
       </c>
       <c r="F10">
-        <v>1.010156069692857</v>
+        <v>1.058605863676277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0435490715464</v>
+        <v>1.03835556624557</v>
       </c>
       <c r="J10">
-        <v>1.015415887445077</v>
+        <v>1.04426495387225</v>
       </c>
       <c r="K10">
-        <v>1.023613356322542</v>
+        <v>1.044205069395647</v>
       </c>
       <c r="L10">
-        <v>1.019587102902396</v>
+        <v>1.054922420301131</v>
       </c>
       <c r="M10">
-        <v>1.024344342789215</v>
+        <v>1.061972591960235</v>
       </c>
       <c r="N10">
-        <v>1.01685789447508</v>
+        <v>1.045747929885613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.982413633015189</v>
+        <v>1.03717696728285</v>
       </c>
       <c r="D11">
-        <v>1.006192830731377</v>
+        <v>1.040189716919136</v>
       </c>
       <c r="E11">
-        <v>1.00135567546765</v>
+        <v>1.050773159906031</v>
       </c>
       <c r="F11">
-        <v>1.005967749383876</v>
+        <v>1.057802208780314</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04209117533217</v>
+        <v>1.03816213928267</v>
       </c>
       <c r="J11">
-        <v>1.012536778768101</v>
+        <v>1.043729716785978</v>
       </c>
       <c r="K11">
-        <v>1.020998896740604</v>
+        <v>1.043741357673291</v>
       </c>
       <c r="L11">
-        <v>1.01625207094026</v>
+        <v>1.054286347230106</v>
       </c>
       <c r="M11">
-        <v>1.020777993448734</v>
+        <v>1.061290326093245</v>
       </c>
       <c r="N11">
-        <v>1.013974697133544</v>
+        <v>1.045211932701285</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.980811963425232</v>
+        <v>1.036891105035091</v>
       </c>
       <c r="D12">
-        <v>1.004980091294956</v>
+        <v>1.039971675941289</v>
       </c>
       <c r="E12">
-        <v>0.9998654080118148</v>
+        <v>1.050491532652413</v>
       </c>
       <c r="F12">
-        <v>1.004390431038097</v>
+        <v>1.057503716767341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041539221469836</v>
+        <v>1.038089948023021</v>
       </c>
       <c r="J12">
-        <v>1.011451196021815</v>
+        <v>1.043530768894195</v>
       </c>
       <c r="K12">
-        <v>1.020012498543183</v>
+        <v>1.043568895217366</v>
       </c>
       <c r="L12">
-        <v>1.014995187046029</v>
+        <v>1.054049996028222</v>
       </c>
       <c r="M12">
-        <v>1.019433997947432</v>
+        <v>1.061036819658991</v>
       </c>
       <c r="N12">
-        <v>1.012887572735239</v>
+        <v>1.045012702280678</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9811566074919292</v>
+        <v>1.036952425457081</v>
       </c>
       <c r="D13">
-        <v>1.005241015161237</v>
+        <v>1.040018451101606</v>
       </c>
       <c r="E13">
-        <v>1.000186016572927</v>
+        <v>1.050551941725463</v>
       </c>
       <c r="F13">
-        <v>1.004729772408337</v>
+        <v>1.057567743381388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041658098430885</v>
+        <v>1.038105448858916</v>
       </c>
       <c r="J13">
-        <v>1.011684805292229</v>
+        <v>1.043573450107447</v>
       </c>
       <c r="K13">
-        <v>1.020224790760782</v>
+        <v>1.043605898932797</v>
       </c>
       <c r="L13">
-        <v>1.01526563172999</v>
+        <v>1.054100698043292</v>
       </c>
       <c r="M13">
-        <v>1.019723183572294</v>
+        <v>1.061091201403435</v>
       </c>
       <c r="N13">
-        <v>1.013121513757613</v>
+        <v>1.045055444106148</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9822817231259161</v>
+        <v>1.037153338718999</v>
       </c>
       <c r="D14">
-        <v>1.006092938508248</v>
+        <v>1.040171695670475</v>
       </c>
       <c r="E14">
-        <v>1.001232911651777</v>
+        <v>1.050749880088818</v>
       </c>
       <c r="F14">
-        <v>1.005837816861049</v>
+        <v>1.057777534913349</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042045766630028</v>
+        <v>1.038156178947212</v>
       </c>
       <c r="J14">
-        <v>1.012447379809408</v>
+        <v>1.043713274491576</v>
       </c>
       <c r="K14">
-        <v>1.020917677799937</v>
+        <v>1.043727106349824</v>
       </c>
       <c r="L14">
-        <v>1.016148552851415</v>
+        <v>1.054266812113478</v>
       </c>
       <c r="M14">
-        <v>1.02066729944824</v>
+        <v>1.061269372862701</v>
       </c>
       <c r="N14">
-        <v>1.013885171218075</v>
+        <v>1.045195467056939</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9829718088960879</v>
+        <v>1.037277122186673</v>
       </c>
       <c r="D15">
-        <v>1.006615550883859</v>
+        <v>1.040266101157527</v>
       </c>
       <c r="E15">
-        <v>1.001875206990085</v>
+        <v>1.050871839188878</v>
       </c>
       <c r="F15">
-        <v>1.006517614062844</v>
+        <v>1.057906797165817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042283223305937</v>
+        <v>1.038187389853717</v>
       </c>
       <c r="J15">
-        <v>1.012915055099847</v>
+        <v>1.043799406726272</v>
       </c>
       <c r="K15">
-        <v>1.021342536379159</v>
+        <v>1.043801757164097</v>
       </c>
       <c r="L15">
-        <v>1.016690114617634</v>
+        <v>1.054369149132324</v>
       </c>
       <c r="M15">
-        <v>1.02124640513502</v>
+        <v>1.061379139208384</v>
       </c>
       <c r="N15">
-        <v>1.014353510661069</v>
+        <v>1.045281721609289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9869417714207405</v>
+        <v>1.037997507899268</v>
       </c>
       <c r="D16">
-        <v>1.009623303292142</v>
+        <v>1.04081537541928</v>
       </c>
       <c r="E16">
-        <v>1.005572992410341</v>
+        <v>1.051581736672032</v>
       </c>
       <c r="F16">
-        <v>1.010431087965823</v>
+        <v>1.058659202657116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043644395776961</v>
+        <v>1.038368355148528</v>
       </c>
       <c r="J16">
-        <v>1.015604756141382</v>
+        <v>1.044300456633847</v>
       </c>
       <c r="K16">
-        <v>1.023784779121085</v>
+        <v>1.044235813701037</v>
       </c>
       <c r="L16">
-        <v>1.019805964314615</v>
+        <v>1.054964622469542</v>
       </c>
       <c r="M16">
-        <v>1.024578393606052</v>
+        <v>1.062017860195241</v>
       </c>
       <c r="N16">
-        <v>1.017047031386596</v>
+        <v>1.045783483065204</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.989392243031928</v>
+        <v>1.038449311174764</v>
       </c>
       <c r="D17">
-        <v>1.01148083571478</v>
+        <v>1.041159739249056</v>
       </c>
       <c r="E17">
-        <v>1.007857814836897</v>
+        <v>1.052027075346342</v>
       </c>
       <c r="F17">
-        <v>1.012849002129524</v>
+        <v>1.059131206076088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044480236842078</v>
+        <v>1.03848125741772</v>
       </c>
       <c r="J17">
-        <v>1.01726425470419</v>
+        <v>1.044614508877417</v>
       </c>
       <c r="K17">
-        <v>1.025290514886399</v>
+        <v>1.044507695848162</v>
       </c>
       <c r="L17">
-        <v>1.02172945670852</v>
+        <v>1.055337996287243</v>
       </c>
       <c r="M17">
-        <v>1.026635431081652</v>
+        <v>1.062418367282738</v>
       </c>
       <c r="N17">
-        <v>1.018708886627711</v>
+        <v>1.046097981298982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9908077178994098</v>
+        <v>1.03871281369823</v>
       </c>
       <c r="D18">
-        <v>1.012554126454467</v>
+        <v>1.041360535645009</v>
       </c>
       <c r="E18">
-        <v>1.00917842813082</v>
+        <v>1.052286848226192</v>
       </c>
       <c r="F18">
-        <v>1.014246480242737</v>
+        <v>1.059406532323388</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044961456844439</v>
+        <v>1.038546890764126</v>
       </c>
       <c r="J18">
-        <v>1.018222553747806</v>
+        <v>1.044797602922942</v>
       </c>
       <c r="K18">
-        <v>1.026159621668389</v>
+        <v>1.044666139744399</v>
       </c>
       <c r="L18">
-        <v>1.022840588637767</v>
+        <v>1.055555724904395</v>
       </c>
       <c r="M18">
-        <v>1.027823750027397</v>
+        <v>1.062651924173334</v>
       </c>
       <c r="N18">
-        <v>1.019668546565888</v>
+        <v>1.046281335359052</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9912880550626311</v>
+        <v>1.038802656778101</v>
       </c>
       <c r="D19">
-        <v>1.012918394817428</v>
+        <v>1.041428990984473</v>
       </c>
       <c r="E19">
-        <v>1.009626711722745</v>
+        <v>1.052375426540008</v>
       </c>
       <c r="F19">
-        <v>1.014720845575632</v>
+        <v>1.059500413985449</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045124485345809</v>
+        <v>1.038569232623898</v>
       </c>
       <c r="J19">
-        <v>1.018547699668257</v>
+        <v>1.044860018479531</v>
       </c>
       <c r="K19">
-        <v>1.026454436405481</v>
+        <v>1.044720141230581</v>
       </c>
       <c r="L19">
-        <v>1.023217655675999</v>
+        <v>1.055629955608514</v>
       </c>
       <c r="M19">
-        <v>1.028227018120973</v>
+        <v>1.062731552234697</v>
       </c>
       <c r="N19">
-        <v>1.01999415423084</v>
+        <v>1.046343839552891</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.989130773337348</v>
+        <v>1.038400839731863</v>
       </c>
       <c r="D20">
-        <v>1.011282599884783</v>
+        <v>1.041122799016828</v>
       </c>
       <c r="E20">
-        <v>1.007613934238333</v>
+        <v>1.051979293244191</v>
       </c>
       <c r="F20">
-        <v>1.012590921843309</v>
+        <v>1.059080563072252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044391215609343</v>
+        <v>1.03846916689622</v>
       </c>
       <c r="J20">
-        <v>1.017087212173982</v>
+        <v>1.044580823081874</v>
       </c>
       <c r="K20">
-        <v>1.025129917759016</v>
+        <v>1.044478539989482</v>
       </c>
       <c r="L20">
-        <v>1.021524210111742</v>
+        <v>1.055297942404934</v>
       </c>
       <c r="M20">
-        <v>1.026415930099294</v>
+        <v>1.062375402062024</v>
       </c>
       <c r="N20">
-        <v>1.018531592676803</v>
+        <v>1.046064247665746</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9819510607546383</v>
+        <v>1.037094175987523</v>
       </c>
       <c r="D21">
-        <v>1.005842546498454</v>
+        <v>1.040126571788149</v>
       </c>
       <c r="E21">
-        <v>1.000925198708861</v>
+        <v>1.050691591605432</v>
       </c>
       <c r="F21">
-        <v>1.00551213343681</v>
+        <v>1.057715755962566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041931900389054</v>
+        <v>1.038141249695533</v>
       </c>
       <c r="J21">
-        <v>1.012223275049645</v>
+        <v>1.043672103485175</v>
       </c>
       <c r="K21">
-        <v>1.020714069062799</v>
+        <v>1.043691419844861</v>
       </c>
       <c r="L21">
-        <v>1.015889064091873</v>
+        <v>1.054217898024974</v>
       </c>
       <c r="M21">
-        <v>1.020389823883285</v>
+        <v>1.06121690809645</v>
       </c>
       <c r="N21">
-        <v>1.013660748203848</v>
+        <v>1.045154237582987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773012646336122</v>
+        <v>1.036272371805629</v>
       </c>
       <c r="D22">
-        <v>1.002323210827899</v>
+        <v>1.039499613027938</v>
       </c>
       <c r="E22">
-        <v>0.9966015470068712</v>
+        <v>1.049882083204363</v>
       </c>
       <c r="F22">
-        <v>1.000935704372669</v>
+        <v>1.056857769489249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040325004613126</v>
+        <v>1.03793308544633</v>
       </c>
       <c r="J22">
-        <v>1.009071099078562</v>
+        <v>1.043099962256642</v>
       </c>
       <c r="K22">
-        <v>1.017848784521465</v>
+        <v>1.043195257181561</v>
       </c>
       <c r="L22">
-        <v>1.01224062988469</v>
+        <v>1.053538336934318</v>
       </c>
       <c r="M22">
-        <v>1.016488647538859</v>
+        <v>1.060488038948345</v>
       </c>
       <c r="N22">
-        <v>1.010504095781326</v>
+        <v>1.044581283848285</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.979779624820706</v>
+        <v>1.036708050320828</v>
       </c>
       <c r="D23">
-        <v>1.004198629964398</v>
+        <v>1.039832031949668</v>
       </c>
       <c r="E23">
-        <v>0.998905275219317</v>
+        <v>1.050311207903649</v>
       </c>
       <c r="F23">
-        <v>1.003374181824322</v>
+        <v>1.057312593279627</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041182789887777</v>
+        <v>1.038043625950058</v>
       </c>
       <c r="J23">
-        <v>1.010751399117777</v>
+        <v>1.043403340647012</v>
       </c>
       <c r="K23">
-        <v>1.019376472793457</v>
+        <v>1.043458402901692</v>
       </c>
       <c r="L23">
-        <v>1.014185134925815</v>
+        <v>1.053898632357813</v>
       </c>
       <c r="M23">
-        <v>1.018567821295783</v>
+        <v>1.060874471997528</v>
       </c>
       <c r="N23">
-        <v>1.012186782039331</v>
+        <v>1.044885093070767</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892489629038341</v>
+        <v>1.038422741972414</v>
       </c>
       <c r="D24">
-        <v>1.011372205495253</v>
+        <v>1.041139490918891</v>
       </c>
       <c r="E24">
-        <v>1.007724170631344</v>
+        <v>1.052000883874601</v>
       </c>
       <c r="F24">
-        <v>1.012707576822309</v>
+        <v>1.059103446420099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044431459938585</v>
+        <v>1.038474630764036</v>
       </c>
       <c r="J24">
-        <v>1.017167239846081</v>
+        <v>1.044596044512355</v>
       </c>
       <c r="K24">
-        <v>1.025202512939218</v>
+        <v>1.04449171470044</v>
       </c>
       <c r="L24">
-        <v>1.021616985531544</v>
+        <v>1.055316041196772</v>
       </c>
       <c r="M24">
-        <v>1.026515148643119</v>
+        <v>1.062394816356478</v>
       </c>
       <c r="N24">
-        <v>1.018611733997375</v>
+        <v>1.046079490712403</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9996989087608508</v>
+        <v>1.040411505737277</v>
       </c>
       <c r="D25">
-        <v>1.019300479860064</v>
+        <v>1.042654168387399</v>
       </c>
       <c r="E25">
-        <v>1.017487688609889</v>
+        <v>1.05396222665196</v>
       </c>
       <c r="F25">
-        <v>1.023038376108467</v>
+        <v>1.061182211026842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047955272170652</v>
+        <v>1.038966133620233</v>
       </c>
       <c r="J25">
-        <v>1.024236410077512</v>
+        <v>1.045976689008801</v>
       </c>
       <c r="K25">
-        <v>1.03160639077391</v>
+        <v>1.045685311630374</v>
       </c>
       <c r="L25">
-        <v>1.029820463450595</v>
+        <v>1.056958750240212</v>
       </c>
       <c r="M25">
-        <v>1.035289276260055</v>
+        <v>1.064157051116754</v>
       </c>
       <c r="N25">
-        <v>1.02569094326138</v>
+        <v>1.047462095882397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041996964640007</v>
+        <v>1.007649596010741</v>
       </c>
       <c r="D2">
-        <v>1.043860229030055</v>
+        <v>1.02533818247122</v>
       </c>
       <c r="E2">
-        <v>1.055527091839851</v>
+        <v>1.024938767239242</v>
       </c>
       <c r="F2">
-        <v>1.062840747374948</v>
+        <v>1.030920859811102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039351185376353</v>
+        <v>1.050584786137073</v>
       </c>
       <c r="J2">
-        <v>1.047075161650013</v>
+        <v>1.029603891690387</v>
       </c>
       <c r="K2">
-        <v>1.046632905581689</v>
+        <v>1.036455451304338</v>
       </c>
       <c r="L2">
-        <v>1.058267305117526</v>
+        <v>1.036061263743789</v>
       </c>
       <c r="M2">
-        <v>1.065561003750701</v>
+        <v>1.041965591281792</v>
       </c>
       <c r="N2">
-        <v>1.048562128480756</v>
+        <v>1.031066047313804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043147733651574</v>
+        <v>1.013221609491734</v>
       </c>
       <c r="D3">
-        <v>1.044734762056177</v>
+        <v>1.029571045496819</v>
       </c>
       <c r="E3">
-        <v>1.056663638857233</v>
+        <v>1.030172684298523</v>
       </c>
       <c r="F3">
-        <v>1.064045320553874</v>
+        <v>1.03645708622924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039626729482457</v>
+        <v>1.052396624116064</v>
       </c>
       <c r="J3">
-        <v>1.047871187048731</v>
+        <v>1.033358216423999</v>
       </c>
       <c r="K3">
-        <v>1.047318393646616</v>
+        <v>1.039839039520855</v>
       </c>
       <c r="L3">
-        <v>1.059216487178757</v>
+        <v>1.040433524083587</v>
       </c>
       <c r="M3">
-        <v>1.066579492489757</v>
+        <v>1.046643810975551</v>
       </c>
       <c r="N3">
-        <v>1.049359284326846</v>
+        <v>1.034825703619165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043892177384048</v>
+        <v>1.016740612491699</v>
       </c>
       <c r="D4">
-        <v>1.0453001034771</v>
+        <v>1.032244484726889</v>
       </c>
       <c r="E4">
-        <v>1.05739921494096</v>
+        <v>1.033483420722896</v>
       </c>
       <c r="F4">
-        <v>1.064824921065073</v>
+        <v>1.039958759910648</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039803158006219</v>
+        <v>1.053526176318047</v>
       </c>
       <c r="J4">
-        <v>1.048385551134136</v>
+        <v>1.035725573782187</v>
       </c>
       <c r="K4">
-        <v>1.047760774462567</v>
+        <v>1.041968720201235</v>
       </c>
       <c r="L4">
-        <v>1.059830241114861</v>
+        <v>1.043193851961868</v>
       </c>
       <c r="M4">
-        <v>1.067238111428524</v>
+        <v>1.049597700251671</v>
       </c>
       <c r="N4">
-        <v>1.04987437886825</v>
+        <v>1.037196422896342</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044205099550369</v>
+        <v>1.018200196560178</v>
       </c>
       <c r="D5">
-        <v>1.045537643954096</v>
+        <v>1.033353321202429</v>
       </c>
       <c r="E5">
-        <v>1.057708488856159</v>
+        <v>1.034857840267499</v>
       </c>
       <c r="F5">
-        <v>1.065152704660421</v>
+        <v>1.041412382078105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03987688168705</v>
+        <v>1.053991096774628</v>
       </c>
       <c r="J5">
-        <v>1.048601618595931</v>
+        <v>1.036706560806355</v>
       </c>
       <c r="K5">
-        <v>1.047946470189445</v>
+        <v>1.042850260877866</v>
       </c>
       <c r="L5">
-        <v>1.060088160964633</v>
+        <v>1.044338481819963</v>
       </c>
       <c r="M5">
-        <v>1.067514897143637</v>
+        <v>1.050822692522055</v>
       </c>
       <c r="N5">
-        <v>1.050090753170624</v>
+        <v>1.038178803034605</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044257638135039</v>
+        <v>1.018444130753058</v>
       </c>
       <c r="D6">
-        <v>1.045577520483247</v>
+        <v>1.033538632485423</v>
       </c>
       <c r="E6">
-        <v>1.057760419543711</v>
+        <v>1.035087611713409</v>
       </c>
       <c r="F6">
-        <v>1.065207743315164</v>
+        <v>1.041655390859651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03988923401494</v>
+        <v>1.054068584532117</v>
       </c>
       <c r="J6">
-        <v>1.048637887251336</v>
+        <v>1.036870453385734</v>
       </c>
       <c r="K6">
-        <v>1.047977632840453</v>
+        <v>1.04299748211102</v>
       </c>
       <c r="L6">
-        <v>1.060131460863849</v>
+        <v>1.044529761504273</v>
       </c>
       <c r="M6">
-        <v>1.067561364977856</v>
+        <v>1.05102740742359</v>
       </c>
       <c r="N6">
-        <v>1.05012707333168</v>
+        <v>1.038342928360245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04389635882868</v>
+        <v>1.016760192202276</v>
       </c>
       <c r="D7">
-        <v>1.045303278011448</v>
+        <v>1.032259359524026</v>
       </c>
       <c r="E7">
-        <v>1.05740334732488</v>
+        <v>1.033501853224382</v>
       </c>
       <c r="F7">
-        <v>1.064829300768948</v>
+        <v>1.039978254848845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039804144861463</v>
+        <v>1.053532427282041</v>
       </c>
       <c r="J7">
-        <v>1.048388438910108</v>
+        <v>1.035738737031461</v>
       </c>
       <c r="K7">
-        <v>1.047763256842375</v>
+        <v>1.041980552858295</v>
       </c>
       <c r="L7">
-        <v>1.059833687853622</v>
+        <v>1.043209207844802</v>
       </c>
       <c r="M7">
-        <v>1.067241810235652</v>
+        <v>1.049614133853894</v>
       </c>
       <c r="N7">
-        <v>1.049877270745196</v>
+        <v>1.037209604838939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042385910626383</v>
+        <v>1.009551143379685</v>
       </c>
       <c r="D8">
-        <v>1.044155893480695</v>
+        <v>1.026782638040466</v>
       </c>
       <c r="E8">
-        <v>1.055911161801319</v>
+        <v>1.026723800789937</v>
       </c>
       <c r="F8">
-        <v>1.063247805744872</v>
+        <v>1.032809061221586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039444693407699</v>
+        <v>1.051206166006247</v>
       </c>
       <c r="J8">
-        <v>1.047344331095822</v>
+        <v>1.030885869005161</v>
       </c>
       <c r="K8">
-        <v>1.04686481313495</v>
+        <v>1.037611642298637</v>
       </c>
       <c r="L8">
-        <v>1.058588175174088</v>
+        <v>1.03755355100565</v>
       </c>
       <c r="M8">
-        <v>1.065905292449777</v>
+        <v>1.043562221716726</v>
       </c>
       <c r="N8">
-        <v>1.048831680178052</v>
+        <v>1.032349845183411</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039722864868481</v>
+        <v>0.99614236660698</v>
       </c>
       <c r="D9">
-        <v>1.042129910146776</v>
+        <v>1.016601028610147</v>
       </c>
       <c r="E9">
-        <v>1.053282883492173</v>
+        <v>1.01416101922073</v>
       </c>
       <c r="F9">
-        <v>1.060462199372533</v>
+        <v>1.019518682642956</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038796991441749</v>
+        <v>1.046763977213332</v>
       </c>
       <c r="J9">
-        <v>1.045498956938774</v>
+        <v>1.021832087162572</v>
       </c>
       <c r="K9">
-        <v>1.045272620184609</v>
+        <v>1.029430387582338</v>
       </c>
       <c r="L9">
-        <v>1.056390094185703</v>
+        <v>1.027028447123024</v>
       </c>
       <c r="M9">
-        <v>1.063546990247883</v>
+        <v>1.032302825967518</v>
       </c>
       <c r="N9">
-        <v>1.046983685378034</v>
+        <v>1.023283205932122</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03794644612953</v>
+        <v>0.9866629363639466</v>
       </c>
       <c r="D10">
-        <v>1.040776450158389</v>
+        <v>1.00941198389135</v>
       </c>
       <c r="E10">
-        <v>1.05153141103122</v>
+        <v>1.005313120396515</v>
       </c>
       <c r="F10">
-        <v>1.058605863676277</v>
+        <v>1.010156069692859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03835556624557</v>
+        <v>1.043549071546402</v>
       </c>
       <c r="J10">
-        <v>1.04426495387225</v>
+        <v>1.015415887445079</v>
       </c>
       <c r="K10">
-        <v>1.044205069395647</v>
+        <v>1.023613356322543</v>
       </c>
       <c r="L10">
-        <v>1.054922420301131</v>
+        <v>1.019587102902399</v>
       </c>
       <c r="M10">
-        <v>1.061972591960235</v>
+        <v>1.024344342789217</v>
       </c>
       <c r="N10">
-        <v>1.045747929885613</v>
+        <v>1.016857894475081</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03717696728285</v>
+        <v>0.9824136330151894</v>
       </c>
       <c r="D11">
-        <v>1.040189716919136</v>
+        <v>1.006192830731377</v>
       </c>
       <c r="E11">
-        <v>1.050773159906031</v>
+        <v>1.001355675467651</v>
       </c>
       <c r="F11">
-        <v>1.057802208780314</v>
+        <v>1.005967749383876</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03816213928267</v>
+        <v>1.04209117533217</v>
       </c>
       <c r="J11">
-        <v>1.043729716785978</v>
+        <v>1.012536778768102</v>
       </c>
       <c r="K11">
-        <v>1.043741357673291</v>
+        <v>1.020998896740605</v>
       </c>
       <c r="L11">
-        <v>1.054286347230106</v>
+        <v>1.016252070940261</v>
       </c>
       <c r="M11">
-        <v>1.061290326093245</v>
+        <v>1.020777993448734</v>
       </c>
       <c r="N11">
-        <v>1.045211932701285</v>
+        <v>1.013974697133544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036891105035091</v>
+        <v>0.980811963425233</v>
       </c>
       <c r="D12">
-        <v>1.039971675941289</v>
+        <v>1.004980091294958</v>
       </c>
       <c r="E12">
-        <v>1.050491532652413</v>
+        <v>0.9998654080118159</v>
       </c>
       <c r="F12">
-        <v>1.057503716767341</v>
+        <v>1.004390431038098</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038089948023021</v>
+        <v>1.041539221469836</v>
       </c>
       <c r="J12">
-        <v>1.043530768894195</v>
+        <v>1.011451196021816</v>
       </c>
       <c r="K12">
-        <v>1.043568895217366</v>
+        <v>1.020012498543184</v>
       </c>
       <c r="L12">
-        <v>1.054049996028222</v>
+        <v>1.01499518704603</v>
       </c>
       <c r="M12">
-        <v>1.061036819658991</v>
+        <v>1.019433997947433</v>
       </c>
       <c r="N12">
-        <v>1.045012702280678</v>
+        <v>1.012887572735241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036952425457081</v>
+        <v>0.9811566074919278</v>
       </c>
       <c r="D13">
-        <v>1.040018451101606</v>
+        <v>1.005241015161236</v>
       </c>
       <c r="E13">
-        <v>1.050551941725463</v>
+        <v>1.000186016572926</v>
       </c>
       <c r="F13">
-        <v>1.057567743381388</v>
+        <v>1.004729772408335</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038105448858916</v>
+        <v>1.041658098430884</v>
       </c>
       <c r="J13">
-        <v>1.043573450107447</v>
+        <v>1.011684805292228</v>
       </c>
       <c r="K13">
-        <v>1.043605898932797</v>
+        <v>1.020224790760781</v>
       </c>
       <c r="L13">
-        <v>1.054100698043292</v>
+        <v>1.015265631729988</v>
       </c>
       <c r="M13">
-        <v>1.061091201403435</v>
+        <v>1.019723183572293</v>
       </c>
       <c r="N13">
-        <v>1.045055444106148</v>
+        <v>1.013121513757612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.037153338718999</v>
+        <v>0.9822817231259166</v>
       </c>
       <c r="D14">
-        <v>1.040171695670475</v>
+        <v>1.006092938508249</v>
       </c>
       <c r="E14">
-        <v>1.050749880088818</v>
+        <v>1.001232911651777</v>
       </c>
       <c r="F14">
-        <v>1.057777534913349</v>
+        <v>1.00583781686105</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038156178947212</v>
+        <v>1.042045766630028</v>
       </c>
       <c r="J14">
-        <v>1.043713274491576</v>
+        <v>1.012447379809409</v>
       </c>
       <c r="K14">
-        <v>1.043727106349824</v>
+        <v>1.020917677799937</v>
       </c>
       <c r="L14">
-        <v>1.054266812113478</v>
+        <v>1.016148552851416</v>
       </c>
       <c r="M14">
-        <v>1.061269372862701</v>
+        <v>1.02066729944824</v>
       </c>
       <c r="N14">
-        <v>1.045195467056939</v>
+        <v>1.013885171218076</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037277122186673</v>
+        <v>0.9829718088960882</v>
       </c>
       <c r="D15">
-        <v>1.040266101157527</v>
+        <v>1.006615550883859</v>
       </c>
       <c r="E15">
-        <v>1.050871839188878</v>
+        <v>1.001875206990085</v>
       </c>
       <c r="F15">
-        <v>1.057906797165817</v>
+        <v>1.006517614062844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038187389853717</v>
+        <v>1.042283223305937</v>
       </c>
       <c r="J15">
-        <v>1.043799406726272</v>
+        <v>1.012915055099847</v>
       </c>
       <c r="K15">
-        <v>1.043801757164097</v>
+        <v>1.021342536379159</v>
       </c>
       <c r="L15">
-        <v>1.054369149132324</v>
+        <v>1.016690114617634</v>
       </c>
       <c r="M15">
-        <v>1.061379139208384</v>
+        <v>1.021246405135021</v>
       </c>
       <c r="N15">
-        <v>1.045281721609289</v>
+        <v>1.014353510661069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037997507899268</v>
+        <v>0.9869417714207409</v>
       </c>
       <c r="D16">
-        <v>1.04081537541928</v>
+        <v>1.009623303292142</v>
       </c>
       <c r="E16">
-        <v>1.051581736672032</v>
+        <v>1.005572992410341</v>
       </c>
       <c r="F16">
-        <v>1.058659202657116</v>
+        <v>1.010431087965824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038368355148528</v>
+        <v>1.043644395776961</v>
       </c>
       <c r="J16">
-        <v>1.044300456633847</v>
+        <v>1.015604756141382</v>
       </c>
       <c r="K16">
-        <v>1.044235813701037</v>
+        <v>1.023784779121085</v>
       </c>
       <c r="L16">
-        <v>1.054964622469542</v>
+        <v>1.019805964314616</v>
       </c>
       <c r="M16">
-        <v>1.062017860195241</v>
+        <v>1.024578393606053</v>
       </c>
       <c r="N16">
-        <v>1.045783483065204</v>
+        <v>1.017047031386597</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038449311174764</v>
+        <v>0.9893922430319281</v>
       </c>
       <c r="D17">
-        <v>1.041159739249056</v>
+        <v>1.01148083571478</v>
       </c>
       <c r="E17">
-        <v>1.052027075346342</v>
+        <v>1.007857814836897</v>
       </c>
       <c r="F17">
-        <v>1.059131206076088</v>
+        <v>1.012849002129524</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03848125741772</v>
+        <v>1.044480236842078</v>
       </c>
       <c r="J17">
-        <v>1.044614508877417</v>
+        <v>1.01726425470419</v>
       </c>
       <c r="K17">
-        <v>1.044507695848162</v>
+        <v>1.025290514886399</v>
       </c>
       <c r="L17">
-        <v>1.055337996287243</v>
+        <v>1.02172945670852</v>
       </c>
       <c r="M17">
-        <v>1.062418367282738</v>
+        <v>1.026635431081652</v>
       </c>
       <c r="N17">
-        <v>1.046097981298982</v>
+        <v>1.018708886627711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03871281369823</v>
+        <v>0.9908077178994111</v>
       </c>
       <c r="D18">
-        <v>1.041360535645009</v>
+        <v>1.012554126454468</v>
       </c>
       <c r="E18">
-        <v>1.052286848226192</v>
+        <v>1.009178428130821</v>
       </c>
       <c r="F18">
-        <v>1.059406532323388</v>
+        <v>1.014246480242739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038546890764126</v>
+        <v>1.04496145684444</v>
       </c>
       <c r="J18">
-        <v>1.044797602922942</v>
+        <v>1.018222553747808</v>
       </c>
       <c r="K18">
-        <v>1.044666139744399</v>
+        <v>1.026159621668391</v>
       </c>
       <c r="L18">
-        <v>1.055555724904395</v>
+        <v>1.022840588637768</v>
       </c>
       <c r="M18">
-        <v>1.062651924173334</v>
+        <v>1.027823750027398</v>
       </c>
       <c r="N18">
-        <v>1.046281335359052</v>
+        <v>1.019668546565889</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038802656778101</v>
+        <v>0.9912880550626315</v>
       </c>
       <c r="D19">
-        <v>1.041428990984473</v>
+        <v>1.012918394817428</v>
       </c>
       <c r="E19">
-        <v>1.052375426540008</v>
+        <v>1.009626711722745</v>
       </c>
       <c r="F19">
-        <v>1.059500413985449</v>
+        <v>1.014720845575633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038569232623898</v>
+        <v>1.045124485345809</v>
       </c>
       <c r="J19">
-        <v>1.044860018479531</v>
+        <v>1.018547699668258</v>
       </c>
       <c r="K19">
-        <v>1.044720141230581</v>
+        <v>1.026454436405481</v>
       </c>
       <c r="L19">
-        <v>1.055629955608514</v>
+        <v>1.023217655675999</v>
       </c>
       <c r="M19">
-        <v>1.062731552234697</v>
+        <v>1.028227018120974</v>
       </c>
       <c r="N19">
-        <v>1.046343839552891</v>
+        <v>1.019994154230841</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038400839731863</v>
+        <v>0.9891307733373481</v>
       </c>
       <c r="D20">
-        <v>1.041122799016828</v>
+        <v>1.011282599884783</v>
       </c>
       <c r="E20">
-        <v>1.051979293244191</v>
+        <v>1.007613934238333</v>
       </c>
       <c r="F20">
-        <v>1.059080563072252</v>
+        <v>1.012590921843309</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03846916689622</v>
+        <v>1.044391215609342</v>
       </c>
       <c r="J20">
-        <v>1.044580823081874</v>
+        <v>1.017087212173982</v>
       </c>
       <c r="K20">
-        <v>1.044478539989482</v>
+        <v>1.025129917759016</v>
       </c>
       <c r="L20">
-        <v>1.055297942404934</v>
+        <v>1.021524210111742</v>
       </c>
       <c r="M20">
-        <v>1.062375402062024</v>
+        <v>1.026415930099294</v>
       </c>
       <c r="N20">
-        <v>1.046064247665746</v>
+        <v>1.018531592676803</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037094175987523</v>
+        <v>0.98195106075464</v>
       </c>
       <c r="D21">
-        <v>1.040126571788149</v>
+        <v>1.005842546498456</v>
       </c>
       <c r="E21">
-        <v>1.050691591605432</v>
+        <v>1.000925198708863</v>
       </c>
       <c r="F21">
-        <v>1.057715755962566</v>
+        <v>1.005512133436812</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038141249695533</v>
+        <v>1.041931900389055</v>
       </c>
       <c r="J21">
-        <v>1.043672103485175</v>
+        <v>1.012223275049646</v>
       </c>
       <c r="K21">
-        <v>1.043691419844861</v>
+        <v>1.0207140690628</v>
       </c>
       <c r="L21">
-        <v>1.054217898024974</v>
+        <v>1.015889064091875</v>
       </c>
       <c r="M21">
-        <v>1.06121690809645</v>
+        <v>1.020389823883288</v>
       </c>
       <c r="N21">
-        <v>1.045154237582987</v>
+        <v>1.013660748203849</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036272371805629</v>
+        <v>0.9773012646336111</v>
       </c>
       <c r="D22">
-        <v>1.039499613027938</v>
+        <v>1.002323210827898</v>
       </c>
       <c r="E22">
-        <v>1.049882083204363</v>
+        <v>0.9966015470068699</v>
       </c>
       <c r="F22">
-        <v>1.056857769489249</v>
+        <v>1.000935704372667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03793308544633</v>
+        <v>1.040325004613125</v>
       </c>
       <c r="J22">
-        <v>1.043099962256642</v>
+        <v>1.009071099078561</v>
       </c>
       <c r="K22">
-        <v>1.043195257181561</v>
+        <v>1.017848784521464</v>
       </c>
       <c r="L22">
-        <v>1.053538336934318</v>
+        <v>1.012240629884688</v>
       </c>
       <c r="M22">
-        <v>1.060488038948345</v>
+        <v>1.016488647538857</v>
       </c>
       <c r="N22">
-        <v>1.044581283848285</v>
+        <v>1.010504095781325</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036708050320828</v>
+        <v>0.9797796248207052</v>
       </c>
       <c r="D23">
-        <v>1.039832031949668</v>
+        <v>1.004198629964397</v>
       </c>
       <c r="E23">
-        <v>1.050311207903649</v>
+        <v>0.9989052752193165</v>
       </c>
       <c r="F23">
-        <v>1.057312593279627</v>
+        <v>1.003374181824322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038043625950058</v>
+        <v>1.041182789887776</v>
       </c>
       <c r="J23">
-        <v>1.043403340647012</v>
+        <v>1.010751399117777</v>
       </c>
       <c r="K23">
-        <v>1.043458402901692</v>
+        <v>1.019376472793456</v>
       </c>
       <c r="L23">
-        <v>1.053898632357813</v>
+        <v>1.014185134925815</v>
       </c>
       <c r="M23">
-        <v>1.060874471997528</v>
+        <v>1.018567821295782</v>
       </c>
       <c r="N23">
-        <v>1.044885093070767</v>
+        <v>1.01218678203933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038422741972414</v>
+        <v>0.9892489629038339</v>
       </c>
       <c r="D24">
-        <v>1.041139490918891</v>
+        <v>1.011372205495253</v>
       </c>
       <c r="E24">
-        <v>1.052000883874601</v>
+        <v>1.007724170631343</v>
       </c>
       <c r="F24">
-        <v>1.059103446420099</v>
+        <v>1.012707576822309</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038474630764036</v>
+        <v>1.044431459938585</v>
       </c>
       <c r="J24">
-        <v>1.044596044512355</v>
+        <v>1.01716723984608</v>
       </c>
       <c r="K24">
-        <v>1.04449171470044</v>
+        <v>1.025202512939218</v>
       </c>
       <c r="L24">
-        <v>1.055316041196772</v>
+        <v>1.021616985531544</v>
       </c>
       <c r="M24">
-        <v>1.062394816356478</v>
+        <v>1.026515148643119</v>
       </c>
       <c r="N24">
-        <v>1.046079490712403</v>
+        <v>1.018611733997375</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040411505737277</v>
+        <v>0.9996989087608513</v>
       </c>
       <c r="D25">
-        <v>1.042654168387399</v>
+        <v>1.019300479860064</v>
       </c>
       <c r="E25">
-        <v>1.05396222665196</v>
+        <v>1.01748768860989</v>
       </c>
       <c r="F25">
-        <v>1.061182211026842</v>
+        <v>1.023038376108468</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038966133620233</v>
+        <v>1.047955272170652</v>
       </c>
       <c r="J25">
-        <v>1.045976689008801</v>
+        <v>1.024236410077512</v>
       </c>
       <c r="K25">
-        <v>1.045685311630374</v>
+        <v>1.03160639077391</v>
       </c>
       <c r="L25">
-        <v>1.056958750240212</v>
+        <v>1.029820463450596</v>
       </c>
       <c r="M25">
-        <v>1.064157051116754</v>
+        <v>1.035289276260056</v>
       </c>
       <c r="N25">
-        <v>1.047462095882397</v>
+        <v>1.025690943261381</v>
       </c>
     </row>
   </sheetData>
